--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2686374.345467375</v>
+        <v>2826543.210633963</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5270303.084215232</v>
+        <v>5558498.286709433</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>409.5752045327653</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -674,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.3935049598464</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>165.6219125422725</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.900153476535236</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8132373742819</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>53.14241173286023</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>69.3713182620654</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>238.3393434924743</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.13685855987289</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>276.8642848047248</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>124.2544657490343</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>101.6170244739444</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1342,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>130.7821696128132</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.79394042365203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>28.02965121209647</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.4784625994896</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1658,13 +1660,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1771,16 +1773,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869537</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>202.5243118902631</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>11.79131134958832</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>2.940417939104786</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.56447762082692</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>140.5477243251703</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>33.82268489766706</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2488,10 +2490,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>56.33567739176581</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>76.34947650093932</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>86.73226015562099</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3190,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>164.9023544709899</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3247,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>148.8223622090878</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>200.1143878900198</v>
+        <v>228.0996351671469</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>16.3777011108028</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>121.9332546069154</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>82.66980981614101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3958,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>332.4277974347589</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>91.2432876734013</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>57.84742609511863</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>824.2522897001688</v>
+        <v>1326.674569082377</v>
       </c>
       <c r="C2" t="n">
-        <v>801.391963753873</v>
+        <v>899.773839095677</v>
       </c>
       <c r="D2" t="n">
-        <v>782.1397469792773</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>356.162807127135</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>380.7336570066843</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>859.6725812491125</v>
       </c>
       <c r="M2" t="n">
-        <v>856.3013579804531</v>
+        <v>859.6725812491125</v>
       </c>
       <c r="N2" t="n">
-        <v>856.3013579804531</v>
+        <v>859.6725812491125</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.087264683184</v>
+        <v>1338.611505491541</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1366.319142682382</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1366.319142682382</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.319142682382</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="X2" t="n">
-        <v>954.5991438501296</v>
+        <v>1343.779395338208</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.0602499512948</v>
+        <v>1342.482529333503</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>789.3385488143367</v>
       </c>
       <c r="L3" t="n">
-        <v>950.4838058662885</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662885</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="O3" t="n">
-        <v>1407.269712569019</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.969896714864</v>
+        <v>814.7702164514794</v>
       </c>
       <c r="C4" t="n">
-        <v>299.9973335937801</v>
+        <v>642.7976533303954</v>
       </c>
       <c r="D4" t="n">
-        <v>136.6805607205508</v>
+        <v>642.7976533303954</v>
       </c>
       <c r="E4" t="n">
-        <v>136.6805607205508</v>
+        <v>476.5894474832489</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>304.7276732578093</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>782.7871087254983</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.278619601534</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1794.621460762313</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1551.282112988213</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="U4" t="n">
-        <v>1271.097664488517</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="V4" t="n">
-        <v>989.3861970965459</v>
+        <v>1483.260249743035</v>
       </c>
       <c r="W4" t="n">
-        <v>714.5337932690589</v>
+        <v>1208.407845915548</v>
       </c>
       <c r="X4" t="n">
-        <v>471.969896714864</v>
+        <v>1208.407845915548</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.969896714864</v>
+        <v>982.0650776052901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>526.3839111742037</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>503.5235852279079</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2171.232048691811</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>1950.306477736444</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.512330082224</v>
+        <v>883.8402198009502</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.1750600371148</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>659.4347056307208</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023297</v>
+        <v>659.4347056307208</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>659.4347056307208</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8868080513412</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8868080513412</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>352.5700351781119</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>352.5700351781119</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>180.7082609526723</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1428.000280878674</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1315.014575824994</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.303108433023</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="W7" t="n">
-        <v>758.4507046055361</v>
+        <v>1460.640644580021</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8868080513412</v>
+        <v>1218.076748025826</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8868080513412</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1738.505123295416</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.604393308716</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>888.3117724937163</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3348326415738</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023296</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023296</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050604</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.9863905750573</v>
+        <v>748.3457691779986</v>
       </c>
       <c r="C10" t="n">
-        <v>405.9863905750573</v>
+        <v>748.3457691779986</v>
       </c>
       <c r="D10" t="n">
-        <v>280.4768292123964</v>
+        <v>585.0289963047693</v>
       </c>
       <c r="E10" t="n">
-        <v>280.4768292123964</v>
+        <v>585.0289963047693</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>413.1672220793297</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>246.9102523735618</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.568659668805</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>838.7162558413179</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>596.152359287123</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.152359287123</v>
+        <v>748.3457691779986</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.67559348397</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.77486349727</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>958.4822426822706</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>532.5053028301281</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>107.3811210195283</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L11" t="n">
-        <v>2047.588607372513</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.588607372513</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N11" t="n">
-        <v>2322.982358494982</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O11" t="n">
-        <v>3168.127008645794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645794</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.741992394013</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3030.252577520263</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2633.86122782061</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2633.86122782061</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2228.5239577755</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>438.0145025789076</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.007093396027</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1335.007093396027</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6527437915615</v>
+        <v>798.2592150595294</v>
       </c>
       <c r="C13" t="n">
-        <v>868.6527437915615</v>
+        <v>798.2592150595294</v>
       </c>
       <c r="D13" t="n">
-        <v>820.3760362929231</v>
+        <v>634.9424421863001</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457766</v>
+        <v>468.7342363391537</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>296.8724621137141</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145692</v>
+        <v>130.6154924079462</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.762229695263</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.577781195567</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1802.577781195567</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1527.72537736808</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1285.161480813885</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.818712503627</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1660.689683618787</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299954</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801187</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.469431397238</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>2763.462022214357</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268074</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023117</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3261.490284619529</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3261.490284619529</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2865.098934919876</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2453.378936087624</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.041666042514</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>1417.02640348073</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1417.02640348073</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1055.896804027512</v>
+        <v>3385.144476738222</v>
       </c>
       <c r="C16" t="n">
-        <v>883.9242409064284</v>
+        <v>3213.171913617138</v>
       </c>
       <c r="D16" t="n">
-        <v>720.6074680331991</v>
+        <v>3049.855140743909</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860526</v>
+        <v>3049.855140743909</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.557929402028</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.373480902332</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.373480902332</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W16" t="n">
-        <v>1524.803468891965</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X16" t="n">
-        <v>1282.23957233777</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.896804027512</v>
+        <v>3575.310445450287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5595,25 +5597,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1429.986740661465</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>756.1415250913442</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>584.1689619702602</v>
+        <v>531.6450242445497</v>
       </c>
       <c r="D19" t="n">
-        <v>584.1689619702602</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E19" t="n">
-        <v>417.9607561231137</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>982.4842934016021</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>756.1415250913442</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5728,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>750.4259316760281</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C22" t="n">
-        <v>750.4259316760281</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5920,40 +5922,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.742919805303</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="Y22" t="n">
-        <v>791.4001514950452</v>
+        <v>1013.622061704626</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.592292076367</v>
+        <v>881.4186312826753</v>
       </c>
       <c r="C25" t="n">
-        <v>926.6197289552831</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D25" t="n">
-        <v>763.3029560820538</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>597.0947502349073</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>425.2329760094677</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>258.9760063036999</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>1757.664925652886</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.664925652886</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X25" t="n">
-        <v>1515.101029098691</v>
+        <v>1297.927368304999</v>
       </c>
       <c r="Y25" t="n">
-        <v>1288.758260788433</v>
+        <v>1071.584599994741</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4478291472353</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>201.4478291472353</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4990.976373644318</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4990.976373644318</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4990.976373644318</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4709.264906252347</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.365091998858</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>675.392528877774</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D34" t="n">
-        <v>512.0757560045447</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2069.109092686948</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1825.769744912848</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1545.585296413153</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1263.873829021182</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.873829021182</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.873829021182</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.531060710924</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6935,49 +6937,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7020,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3702.134933789605</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3702.134933789605</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>3538.818160916376</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>3372.609955069229</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>3200.74818084379</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>3034.491211138022</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4917.771438585582</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4917.771438585582</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4917.771438585582</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4636.05997119361</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>4361.207567366123</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>4118.643670811928</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3892.30090250167</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7159,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988736</v>
@@ -7166,43 +7168,43 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>409.5807935972441</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1125.089101572743</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572743</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991801</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478502</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3278.556980224821</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.584417103737</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3106.584417103737</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3106.584417103737</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878297</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878297</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878297</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.00062281056</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.66127503646</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536765</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144793</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W40" t="n">
-        <v>3937.629613801339</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X40" t="n">
-        <v>3695.065717247144</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>3468.722948936886</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2047.588607372513</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2944.581198189632</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N41" t="n">
-        <v>3506.656153268073</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.656153268073</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268073</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3386.743784759455</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3029.254369885704</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2632.863020186051</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2632.863020186051</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2632.863020186051</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2830578459057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1806.275648663025</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1806.275648663025</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1806.275648663025</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.7678973375558</v>
+        <v>3433.65411225545</v>
       </c>
       <c r="C43" t="n">
-        <v>410.6029936942069</v>
+        <v>3433.65411225545</v>
       </c>
       <c r="D43" t="n">
-        <v>410.6029936942069</v>
+        <v>3433.65411225545</v>
       </c>
       <c r="E43" t="n">
-        <v>410.6029936942069</v>
+        <v>3433.65411225545</v>
       </c>
       <c r="F43" t="n">
-        <v>238.7412194687674</v>
+        <v>3261.792338030011</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299951</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299951</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>3850.162849277774</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.7678973375558</v>
+        <v>3623.820080967516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1882.075247182045</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N44" t="n">
-        <v>2779.067837999164</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O44" t="n">
-        <v>3624.212488149976</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149976</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3365.857578746388</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3365.857578746388</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3030.071924771884</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2618.351925939631</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2213.014655894522</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491135</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>1778.912116655748</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M45" t="n">
-        <v>1778.912116655748</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.912116655748</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O45" t="n">
-        <v>1778.912116655748</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.896804027512</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C46" t="n">
-        <v>883.9242409064283</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D46" t="n">
-        <v>720.607468033199</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E46" t="n">
-        <v>554.3992621860525</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F46" t="n">
-        <v>382.537487960613</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548451</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1747.257944877323</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.257944877323</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W46" t="n">
-        <v>1472.405541049836</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X46" t="n">
-        <v>1472.405541049836</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y46" t="n">
-        <v>1246.062772739578</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>381.2509863648769</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7991,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>114.7742293394937</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>138.6431836367376</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8070,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>381.6805385660551</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>292.925107980384</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740707</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160603</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>260.5451336181237</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>182.1367435982025</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8383,10 +8385,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>457.4595408934817</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>183.4310877314655</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>183.9656051068834</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>315.4551290187576</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>117.877349740931</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510359</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>60.04398625350153</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>788.0921018345259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>509.7471451685729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.60750039798516</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,28 +9245,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P20" t="n">
-        <v>362.1014486857551</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.834293434791</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>625.4779643536372</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>472.1756697257294</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>339.8018586688346</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10914,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>53.89195754947579</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369257</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N41" t="n">
-        <v>605.0321027116589</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>97.42360047804561</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11297,25 +11299,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>592.9817152075436</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N44" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
@@ -11391,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>42.21574383418027</v>
+        <v>646.1870261879693</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>124.9891906967387</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>113.889664720845</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.3286545948307</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.17141804912512</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.16198359623147</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.57956789894899</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.4615261402848</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>237.1978396495481</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.6998314041181</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>83.53161630198503</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>136.4301525922061</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>86.02262841516134</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>92.08422050511717</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>185.3716196335911</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.531342535066557</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>19.61133479696869</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -25369,7 +25371,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>71.9894918991923</v>
+        <v>44.00424462206516</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>239.393659198749</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>48.31958288295773</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.92459019256917</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>59.99963876789769</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1393163412974</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>214.2564536940935</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>488165.3706309848</v>
+        <v>488394.8524761813</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>488165.3706309848</v>
+        <v>489137.8643459308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>488165.3706309848</v>
+        <v>489137.8643459308</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>380062.9885206945</v>
+        <v>477991.1959863781</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380062.9885206944</v>
+        <v>477991.1959863781</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477991.1959863779</v>
+        <v>477991.1959863781</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>380062.9885206945</v>
+        <v>477991.1959863781</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380062.9885206945</v>
+        <v>477991.1959863781</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021388</v>
+        <v>519878.1229021383</v>
       </c>
       <c r="H2" t="n">
-        <v>519878.122902139</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="I2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021382</v>
       </c>
       <c r="J2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="K2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="L2" t="n">
         <v>519878.1229021386</v>
       </c>
       <c r="M2" t="n">
-        <v>519878.1229021388</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="N2" t="n">
         <v>519878.1229021386</v>
       </c>
       <c r="O2" t="n">
-        <v>413372.7938833158</v>
+        <v>519878.122902139</v>
       </c>
       <c r="P2" t="n">
-        <v>413372.7938833157</v>
+        <v>519878.1229021386</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168860.431333321</v>
+        <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="F4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
@@ -26436,10 +26438,10 @@
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
@@ -26448,16 +26450,16 @@
         <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15116.17365792739</v>
+      </c>
+      <c r="P4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15116.17365792743</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12002.98750317896</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12002.98750317896</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153592.6016886558</v>
+        <v>149624.8335738786</v>
       </c>
       <c r="C6" t="n">
-        <v>308218.3223067764</v>
+        <v>299775.9706302713</v>
       </c>
       <c r="D6" t="n">
-        <v>308218.3223067763</v>
+        <v>323182.8043038836</v>
       </c>
       <c r="E6" t="n">
-        <v>213518.1085506554</v>
+        <v>211272.5304991411</v>
       </c>
       <c r="F6" t="n">
-        <v>346281.7765602574</v>
+        <v>427011.8870557817</v>
       </c>
       <c r="G6" t="n">
-        <v>324851.9669614719</v>
+        <v>427011.8870557812</v>
       </c>
       <c r="H6" t="n">
-        <v>427011.8870557819</v>
+        <v>427011.8870557814</v>
       </c>
       <c r="I6" t="n">
-        <v>427011.8870557813</v>
+        <v>427011.8870557811</v>
       </c>
       <c r="J6" t="n">
-        <v>306289.3701130247</v>
+        <v>300434.6184754927</v>
       </c>
       <c r="K6" t="n">
-        <v>427011.8870557812</v>
+        <v>408365.2866987616</v>
       </c>
       <c r="L6" t="n">
         <v>427011.8870557815</v>
       </c>
       <c r="M6" t="n">
-        <v>316202.5269466484</v>
+        <v>246948.015600614</v>
       </c>
       <c r="N6" t="n">
-        <v>427011.8870557816</v>
+        <v>427011.8870557815</v>
       </c>
       <c r="O6" t="n">
-        <v>346281.7765602572</v>
+        <v>427011.8870557819</v>
       </c>
       <c r="P6" t="n">
-        <v>346281.7765602571</v>
+        <v>427011.8870557814</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>9.484490074084363</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.8903923848121</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>22.64239648267247</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>164.5335435295213</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.8366432743328</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>50.18120945273076</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.0112857526333</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>33.76453629673779</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.5130220887418</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>115.5631513979317</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>37.4291393954627</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>40.74128133298278</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>345.4863855700676</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>77.19886752926243</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>116.1280969225081</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>359.9096973612264</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>270.4259204819595</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709420582</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>238.1458997847904</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7937153846608</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35103,10 +35105,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>160.7937153846612</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>278.1755061843116</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>94.780569228603</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>750.7011424785018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>487.2320584543434</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.48282579338712</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,28 +35965,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P20" t="n">
-        <v>324.5260868755238</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36288,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>381.304556440443</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>587.9026025434059</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.0509951211314</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>310.3818991832481</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>30.72006782725357</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,22 +37785,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374939</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N41" t="n">
-        <v>567.7524798772129</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>75.65275927321696</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>555.5504523081119</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>20.4449026293516</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2826543.210633963</v>
+        <v>2825846.54942887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114752</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5558498.286709433</v>
+        <v>5558498.286709432</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>155.5744910351078</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>409.5752045327653</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -718,16 +718,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.6219125422725</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30.16338723330632</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>44.31536894113115</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.14241173286023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -955,7 +955,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>238.3393434924743</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>401.6397036243791</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1189,16 +1189,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>276.8642848047248</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>101.6170244739444</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28.02965121209647</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9811728869537</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>11.79131134958832</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,10 +2061,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>196.9083577388288</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.5477243251703</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>33.82268489766706</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2532,13 +2532,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>40.79871210679615</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76.34947650093932</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>86.73226015562099</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967035</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3565,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>228.0996351671469</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>82.66980981614101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>57.84742609511863</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1326.674569082377</v>
+        <v>124.1336499652903</v>
       </c>
       <c r="C2" t="n">
-        <v>899.773839095677</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>486.0615112848029</v>
+        <v>82.02110724439882</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266044</v>
+        <v>60.08457143266043</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>380.7336570066843</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491125</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>859.6725812491125</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="N2" t="n">
-        <v>859.6725812491125</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="O2" t="n">
-        <v>1338.611505491541</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733969</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1714.181193660504</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1455.826284256916</v>
       </c>
       <c r="V2" t="n">
-        <v>1351.458990130057</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>1351.458990130057</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="X2" t="n">
-        <v>1343.779395338208</v>
+        <v>686.6168705509128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.482529333503</v>
+        <v>281.2796005058032</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K3" t="n">
-        <v>789.3385488143367</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="L3" t="n">
-        <v>904.3053647676197</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="M3" t="n">
-        <v>904.3053647676197</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="N3" t="n">
-        <v>904.3053647676197</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="O3" t="n">
-        <v>904.3053647676197</v>
+        <v>822.2860546829168</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>814.7702164514794</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="C4" t="n">
-        <v>642.7976533303954</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="D4" t="n">
-        <v>642.7976533303954</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="E4" t="n">
-        <v>476.5894474832489</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7276732578093</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="G4" t="n">
-        <v>138.4707035520415</v>
+        <v>168.9387714644721</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.712796873499</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679198</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381705</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014206</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135006</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.971717135006</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.971717135006</v>
+        <v>1194.409307548383</v>
       </c>
       <c r="V4" t="n">
-        <v>1483.260249743035</v>
+        <v>912.697840156412</v>
       </c>
       <c r="W4" t="n">
-        <v>1208.407845915548</v>
+        <v>637.845436328925</v>
       </c>
       <c r="X4" t="n">
-        <v>1208.407845915548</v>
+        <v>395.28153977473</v>
       </c>
       <c r="Y4" t="n">
-        <v>982.0650776052901</v>
+        <v>168.9387714644721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2171.232048691811</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1950.306477736444</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1691.951568332856</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1691.951568332856</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.560218633203</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>883.8402198009502</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962446</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>659.4347056307208</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>659.4347056307208</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>659.4347056307208</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.100240615159</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1210.100240615159</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="T7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="S7" t="n">
-        <v>2224.911252462377</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1981.571904688276</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1701.387456188581</v>
-      </c>
       <c r="V7" t="n">
-        <v>1701.387456188581</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1460.640644580021</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.076748025826</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>516.3741932752805</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>493.5138673289847</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4810,22 +4810,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W8" t="n">
-        <v>1366.835372891113</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>937.5194235715162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>936.2225575668106</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>748.3457691779986</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>748.3457691779986</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>585.0289963047693</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>585.0289963047693</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>413.1672220793297</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>246.9102523735618</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.540941315744</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W10" t="n">
-        <v>974.6885374882565</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X10" t="n">
-        <v>974.6885374882565</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y10" t="n">
-        <v>748.3457691779986</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,31 +5029,31 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
         <v>3833.214576747414</v>
@@ -5077,10 +5077,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399955</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>798.2592150595294</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>798.2592150595294</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>634.9424421863001</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>468.7342363391537</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>296.8724621137141</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>130.6154924079462</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N14" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O14" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P14" t="n">
         <v>5115.135670291427</v>
@@ -5314,16 +5314,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3385.144476738222</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C16" t="n">
-        <v>3213.171913617138</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D16" t="n">
-        <v>3049.855140743909</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E16" t="n">
-        <v>3049.855140743909</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y16" t="n">
-        <v>3575.310445450287</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
         <v>1364.825557038856</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>543.5554397491844</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C19" t="n">
-        <v>531.6450242445497</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D19" t="n">
-        <v>368.3282513713204</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E19" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X19" t="n">
-        <v>960.064176771508</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.72140846125</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>4225.654392279956</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.622061704626</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>841.6494985835419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5922,40 +5922,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.677127506133</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.337779732033</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232337</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840366</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.589460012879</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1155.589460012879</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1013.622061704626</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>881.4186312826753</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C25" t="n">
-        <v>847.2543031032136</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W25" t="n">
-        <v>1540.491264859194</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X25" t="n">
-        <v>1297.927368304999</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y25" t="n">
-        <v>1071.584599994741</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4990.976373644318</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4990.976373644318</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4990.976373644318</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4709.264906252347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4434.41250242486</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1832.396244838396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,49 +6937,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1832.396244838396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1601.992572952389</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,22 +7420,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2720.098147267829</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3433.65411225545</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3433.65411225545</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3433.65411225545</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3433.65411225545</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3261.792338030011</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>4092.726745831969</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>3850.162849277774</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3623.820080967516</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2974.519853142615</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N44" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
         <v>1828.971033901635</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1759.191944545161</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.760201014738</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1458.196304460543</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>381.2509863648769</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>522.0887335865906</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>158.4795886748043</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873011</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6431836367376</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>330.8941070436074</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009461</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740707</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,7 +8227,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>260.5451336181237</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8458,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>547.9768619480851</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>183.4310877314655</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>299.8008876868062</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9260,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.834293434791</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>653.6520906270367</v>
+        <v>653.6520906270358</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>910.6437127227809</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>646.1870261879693</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>114.3286545948307</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>56.16198359623147</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.4615261402848</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>81.9859949792226</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.53161630198503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>136.4301525922061</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>236.5838919079026</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>92.08422050511717</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,19 +24888,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>185.3716196335911</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.00424462206516</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.92459019256917</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>214.2564536940935</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103259</v>
+        <v>538759.4679103254</v>
       </c>
       <c r="C2" t="n">
         <v>538759.4679103259</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103259</v>
+        <v>538759.4679103255</v>
       </c>
       <c r="E2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="F2" t="n">
-        <v>519878.1229021389</v>
+        <v>519878.1229021383</v>
       </c>
       <c r="G2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="H2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="J2" t="n">
         <v>519878.1229021383</v>
       </c>
-      <c r="H2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="I2" t="n">
-        <v>519878.1229021382</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021386</v>
-      </c>
       <c r="K2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="L2" t="n">
         <v>519878.1229021385</v>
       </c>
-      <c r="L2" t="n">
-        <v>519878.1229021386</v>
-      </c>
       <c r="M2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021387</v>
       </c>
-      <c r="N2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519878.122902139</v>
-      </c>
       <c r="P2" t="n">
-        <v>519878.1229021386</v>
+        <v>519878.1229021387</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>163968.7154446949</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
@@ -26432,13 +26432,13 @@
         <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26447,16 +26447,16 @@
         <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792739</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
         <v>15116.17365792743</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149624.8335738786</v>
+        <v>149624.8335738782</v>
       </c>
       <c r="C6" t="n">
-        <v>299775.9706302713</v>
+        <v>299775.9706302712</v>
       </c>
       <c r="D6" t="n">
-        <v>323182.8043038836</v>
+        <v>323182.8043038832</v>
       </c>
       <c r="E6" t="n">
-        <v>211272.5304991411</v>
+        <v>211221.4998369565</v>
       </c>
       <c r="F6" t="n">
-        <v>427011.8870557817</v>
+        <v>426960.8563935969</v>
       </c>
       <c r="G6" t="n">
-        <v>427011.8870557812</v>
+        <v>426960.8563935971</v>
       </c>
       <c r="H6" t="n">
-        <v>427011.8870557814</v>
+        <v>426960.856393597</v>
       </c>
       <c r="I6" t="n">
-        <v>427011.8870557811</v>
+        <v>426960.856393597</v>
       </c>
       <c r="J6" t="n">
-        <v>300434.6184754927</v>
+        <v>300383.5878133082</v>
       </c>
       <c r="K6" t="n">
-        <v>408365.2866987616</v>
+        <v>408314.2560365771</v>
       </c>
       <c r="L6" t="n">
-        <v>427011.8870557815</v>
+        <v>426960.8563935971</v>
       </c>
       <c r="M6" t="n">
-        <v>246948.015600614</v>
+        <v>246896.9849384295</v>
       </c>
       <c r="N6" t="n">
-        <v>427011.8870557815</v>
+        <v>426960.8563935971</v>
       </c>
       <c r="O6" t="n">
-        <v>427011.8870557819</v>
+        <v>426960.8563935973</v>
       </c>
       <c r="P6" t="n">
-        <v>427011.8870557814</v>
+        <v>426960.8563935974</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>260.075389613507</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>9.484490074084363</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.64239648267247</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>112.1949185736208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>50.18120945273076</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.9059542963599</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>33.76453629673779</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>17.41999098247055</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>115.5631513979317</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40.74128133298278</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>345.4863855700676</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>121.0483257753725</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>116.1280969225081</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>307.7222173213852</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.293597556749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709420582</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>238.1458997847904</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>162.8199733981322</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>277.4016538534729</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212494</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.304556440443</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>616.220827727605</v>
+        <v>616.220827727604</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>873.2124498233492</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>624.4161849831406</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
